--- a/EY - DevOps - 5-6-12-13 June 2021.xlsx
+++ b/EY - DevOps - 5-6-12-13 June 2021.xlsx
@@ -598,10 +598,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G29"/>
+  <dimension ref="A1:H29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:F1048576"/>
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -613,7 +613,7 @@
     <col min="5" max="6" width="9.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -636,13 +636,11 @@
         <v>54</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="3">
-        <v>1</v>
-      </c>
+      <c r="B2" s="3"/>
       <c r="C2" s="4">
         <v>0.375</v>
       </c>
@@ -652,14 +650,16 @@
       <c r="G2" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H2" t="str">
+        <f>CONCATENATE(G2,"@atingupta2005gmailcom.onmicrosoft.com")</f>
+        <v>u1@atingupta2005gmailcom.onmicrosoft.com</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="3">
-        <v>10</v>
-      </c>
+      <c r="B3" s="3"/>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
@@ -667,8 +667,12 @@
       <c r="G3" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H3" t="str">
+        <f t="shared" ref="H3:H29" si="0">CONCATENATE(G3,"@atingupta2005gmailcom.onmicrosoft.com")</f>
+        <v>u2@atingupta2005gmailcom.onmicrosoft.com</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>10</v>
       </c>
@@ -680,14 +684,16 @@
       <c r="G4" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H4" t="str">
+        <f t="shared" si="0"/>
+        <v>u3@atingupta2005gmailcom.onmicrosoft.com</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="3">
-        <v>11</v>
-      </c>
+      <c r="B5" s="3"/>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
@@ -695,14 +701,16 @@
       <c r="G5" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H5" t="str">
+        <f t="shared" si="0"/>
+        <v>u4@atingupta2005gmailcom.onmicrosoft.com</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="3">
-        <v>4</v>
-      </c>
+      <c r="B6" s="3"/>
       <c r="C6" s="4">
         <v>0.375</v>
       </c>
@@ -712,14 +720,16 @@
       <c r="G6" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H6" t="str">
+        <f t="shared" si="0"/>
+        <v>u5@atingupta2005gmailcom.onmicrosoft.com</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B7" s="3">
-        <v>12</v>
-      </c>
+      <c r="B7" s="3"/>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
@@ -727,8 +737,12 @@
       <c r="G7" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H7" t="str">
+        <f t="shared" si="0"/>
+        <v>u6@atingupta2005gmailcom.onmicrosoft.com</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>14</v>
       </c>
@@ -740,14 +754,16 @@
       <c r="G8" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H8" t="str">
+        <f t="shared" si="0"/>
+        <v>u7@atingupta2005gmailcom.onmicrosoft.com</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="3">
-        <v>13</v>
-      </c>
+      <c r="B9" s="3"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
@@ -755,14 +771,16 @@
       <c r="G9" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H9" t="str">
+        <f t="shared" si="0"/>
+        <v>u8@atingupta2005gmailcom.onmicrosoft.com</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="3">
-        <v>2</v>
-      </c>
+      <c r="B10" s="3"/>
       <c r="C10" s="4">
         <v>0.375</v>
       </c>
@@ -772,8 +790,12 @@
       <c r="G10" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H10" t="str">
+        <f t="shared" si="0"/>
+        <v>u9@atingupta2005gmailcom.onmicrosoft.com</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>2</v>
       </c>
@@ -785,14 +807,16 @@
       <c r="G11" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H11" t="str">
+        <f t="shared" si="0"/>
+        <v>u10@atingupta2005gmailcom.onmicrosoft.com</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B12" s="3">
-        <v>5</v>
-      </c>
+      <c r="B12" s="3"/>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
@@ -800,14 +824,16 @@
       <c r="G12" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H12" t="str">
+        <f t="shared" si="0"/>
+        <v>u11@atingupta2005gmailcom.onmicrosoft.com</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B13" s="3">
-        <v>7</v>
-      </c>
+      <c r="B13" s="3"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
@@ -815,14 +841,16 @@
       <c r="G13" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H13" t="str">
+        <f t="shared" si="0"/>
+        <v>u12@atingupta2005gmailcom.onmicrosoft.com</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B14" s="3">
-        <v>8</v>
-      </c>
+      <c r="B14" s="3"/>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
@@ -830,8 +858,12 @@
       <c r="G14" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H14" t="str">
+        <f t="shared" si="0"/>
+        <v>u13@atingupta2005gmailcom.onmicrosoft.com</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>3</v>
       </c>
@@ -843,8 +875,12 @@
       <c r="G15" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H15" t="str">
+        <f t="shared" si="0"/>
+        <v>u14@atingupta2005gmailcom.onmicrosoft.com</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>17</v>
       </c>
@@ -856,8 +892,12 @@
       <c r="G16" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H16" t="str">
+        <f t="shared" si="0"/>
+        <v>u15@atingupta2005gmailcom.onmicrosoft.com</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>16</v>
       </c>
@@ -869,8 +909,12 @@
       <c r="G17" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H17" t="str">
+        <f t="shared" si="0"/>
+        <v>u16@atingupta2005gmailcom.onmicrosoft.com</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>23</v>
       </c>
@@ -882,14 +926,16 @@
       <c r="G18" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H18" t="str">
+        <f t="shared" si="0"/>
+        <v>u17@atingupta2005gmailcom.onmicrosoft.com</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B19" s="3">
-        <v>6</v>
-      </c>
+      <c r="B19" s="3"/>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
@@ -897,14 +943,16 @@
       <c r="G19" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H19" t="str">
+        <f t="shared" si="0"/>
+        <v>u18@atingupta2005gmailcom.onmicrosoft.com</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B20" s="3">
-        <v>14</v>
-      </c>
+      <c r="B20" s="3"/>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
       <c r="E20" s="3"/>
@@ -912,8 +960,12 @@
       <c r="G20" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H20" t="str">
+        <f t="shared" si="0"/>
+        <v>u19@atingupta2005gmailcom.onmicrosoft.com</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>7</v>
       </c>
@@ -925,14 +977,16 @@
       <c r="G21" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H21" t="str">
+        <f t="shared" si="0"/>
+        <v>u20@atingupta2005gmailcom.onmicrosoft.com</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B22" s="3">
-        <v>3</v>
-      </c>
+      <c r="B22" s="3"/>
       <c r="C22" s="4">
         <v>0.375</v>
       </c>
@@ -942,8 +996,12 @@
       <c r="G22" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H22" t="str">
+        <f t="shared" si="0"/>
+        <v>u21@atingupta2005gmailcom.onmicrosoft.com</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>8</v>
       </c>
@@ -955,8 +1013,12 @@
       <c r="G23" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H23" t="str">
+        <f t="shared" si="0"/>
+        <v>u22@atingupta2005gmailcom.onmicrosoft.com</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>22</v>
       </c>
@@ -968,8 +1030,12 @@
       <c r="G24" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H24" t="str">
+        <f t="shared" si="0"/>
+        <v>u23@atingupta2005gmailcom.onmicrosoft.com</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>12</v>
       </c>
@@ -981,8 +1047,12 @@
       <c r="G25" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H25" t="str">
+        <f t="shared" si="0"/>
+        <v>u24@atingupta2005gmailcom.onmicrosoft.com</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>25</v>
       </c>
@@ -994,14 +1064,16 @@
       <c r="G26" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H26" t="str">
+        <f t="shared" si="0"/>
+        <v>u25@atingupta2005gmailcom.onmicrosoft.com</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B27" s="6">
-        <v>4</v>
-      </c>
+      <c r="B27" s="6"/>
       <c r="C27" s="6"/>
       <c r="D27" s="6"/>
       <c r="E27" s="6"/>
@@ -1009,21 +1081,33 @@
       <c r="G27" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H27" t="str">
+        <f t="shared" si="0"/>
+        <v>u26@atingupta2005gmailcom.onmicrosoft.com</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
         <v>55</v>
       </c>
       <c r="G28" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H28" t="str">
+        <f t="shared" si="0"/>
+        <v>u27@atingupta2005gmailcom.onmicrosoft.com</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
         <v>57</v>
       </c>
       <c r="G29" t="s">
         <v>58</v>
+      </c>
+      <c r="H29" t="str">
+        <f t="shared" si="0"/>
+        <v>u28@atingupta2005gmailcom.onmicrosoft.com</v>
       </c>
     </row>
   </sheetData>
